--- a/support/Cumplimiento-Consignas.xlsx
+++ b/support/Cumplimiento-Consignas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cusro-CodoACodo\03-PythonFS-24172\C24172G11\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5256E1-BE7F-465D-9AD0-C0DF9AD9F5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2C932A-7E59-4A79-A85A-EB046EBF6424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="0" windowWidth="20145" windowHeight="11520" xr2:uid="{E73603EF-647A-4F8D-8F20-EFE93E8FD641}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>Utilizar al menos una animación, transformación o una transición.</t>
   </si>
@@ -108,9 +108,6 @@
     <t>En progreso</t>
   </si>
   <si>
-    <t>SLC: hay un formulario "enganchado" pero tomando el que hizo el profe en clase. Hay que reprogramarlo completo</t>
-  </si>
-  <si>
     <t>https://github.com/contesl/C24172G11</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>SLC: se utiliza una transicion en las imagines de catalog.html. Hay que revisar el efecto</t>
+  </si>
+  <si>
+    <t>SLC: hay un formulario "enganchado" pero tomando el que hizo el profe en clase. Hay que reprogramarlo completo y agregar validaciones javascript (yo tengo ejemplos)- La validaciones javascript hay que ponerlas en el archivo externo contenido en /js</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD66D113-014E-4A55-AA96-4F35F8EF79FF}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/support/Cumplimiento-Consignas.xlsx
+++ b/support/Cumplimiento-Consignas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cusro-CodoACodo\03-PythonFS-24172\C24172G11\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2C932A-7E59-4A79-A85A-EB046EBF6424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D86A4F2-7D4A-4874-A4AC-81AF0C2BCB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="0" windowWidth="20145" windowHeight="11520" xr2:uid="{E73603EF-647A-4F8D-8F20-EFE93E8FD641}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Utilizar al menos una animación, transformación o una transición.</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>SLC: hay un formulario "enganchado" pero tomando el que hizo el profe en clase. Hay que reprogramarlo completo y agregar validaciones javascript (yo tengo ejemplos)- La validaciones javascript hay que ponerlas en el archivo externo contenido en /js</t>
+  </si>
+  <si>
+    <t>SLC: se agrega Flexbox en la pagina index.html. Pero hay que validar si esta funcionando bien.</t>
   </si>
 </sst>
 </file>
@@ -563,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD66D113-014E-4A55-AA96-4F35F8EF79FF}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,6 +630,12 @@
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
